--- a/model/data/IZZ/xlsx/IZZ.xlsx
+++ b/model/data/IZZ/xlsx/IZZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/tRBS/open source/trbs/model/data/IZZ/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52324ED3-9C53-2B48-B094-74E52DCA46C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0954AC88-2376-174D-9430-90BBCCE586A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" firstSheet="4" activeTab="8" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,353 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="113">
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>key_output</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>monetary</t>
+  </si>
+  <si>
+    <t>smaller_the_better</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>automatic</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>Decrease in absenteeism %</t>
+  </si>
+  <si>
+    <t>Decrease in staff turnover %</t>
+  </si>
+  <si>
+    <t>Increase in customer satisfaction</t>
+  </si>
+  <si>
+    <t>Increase in employee satisfaction</t>
+  </si>
+  <si>
+    <t>Decrease in absenteeism costs</t>
+  </si>
+  <si>
+    <t>Decrease in staff turnover costs</t>
+  </si>
+  <si>
+    <t>Decrease in wage costs</t>
+  </si>
+  <si>
+    <t>Increase in production capacity</t>
+  </si>
+  <si>
+    <t>Total investment</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>internal_variable_input</t>
+  </si>
+  <si>
+    <t>decision_makers_option</t>
+  </si>
+  <si>
+    <t>Healthy eating</t>
+  </si>
+  <si>
+    <t>Leadership development</t>
+  </si>
+  <si>
+    <t>Physical exercise</t>
+  </si>
+  <si>
+    <t>Physical strain reduction</t>
+  </si>
+  <si>
+    <t>Psycho-social stress reduction</t>
+  </si>
+  <si>
+    <t>Salary increase</t>
+  </si>
+  <si>
+    <t>Smoking reduction</t>
+  </si>
+  <si>
+    <t>Training and development</t>
+  </si>
+  <si>
+    <t>Work-life balance</t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>external_variable_input</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>fixed_input</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>argument_1</t>
+  </si>
+  <si>
+    <t>argument_2</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
+    <t>maximum_effect</t>
+  </si>
+  <si>
+    <t>accessibility</t>
+  </si>
+  <si>
+    <t>probability_of_success</t>
+  </si>
+  <si>
+    <t>saturation_point</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>Relative effect employee satisfaction on customer satisfaction</t>
+  </si>
+  <si>
+    <t>Relative effect employee satisfaction on productivity %</t>
+  </si>
+  <si>
+    <t>Relative effect intervention on absenteeism %</t>
+  </si>
+  <si>
+    <t>Relative effect intervention on employee satisfaction</t>
+  </si>
+  <si>
+    <t>Relative effect intervention on productivity %</t>
+  </si>
+  <si>
+    <t>Relative effect intervention on staff turnover %</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Optimistic</t>
+  </si>
+  <si>
+    <t>Pessimistic</t>
+  </si>
+  <si>
+    <t>Average costs of a day lost through absenteeism</t>
+  </si>
+  <si>
+    <t>Average costs of staff turnover</t>
+  </si>
+  <si>
+    <t>Average wage costs per employee</t>
+  </si>
+  <si>
+    <t>Current absenteeism %</t>
+  </si>
+  <si>
+    <t>Current customer satisfaction</t>
+  </si>
+  <si>
+    <t>Current employee satisfaction</t>
+  </si>
+  <si>
+    <t>Current number of employees</t>
+  </si>
+  <si>
+    <t>Current productivity %</t>
+  </si>
+  <si>
+    <t>Current staff turnover %</t>
+  </si>
+  <si>
+    <t>Indirect effect employee satisfaction on customer satisfaction</t>
+  </si>
+  <si>
+    <t>Indirect effect employee satisfaction on productivity %</t>
+  </si>
+  <si>
+    <t>Number of workable days per year</t>
+  </si>
+  <si>
+    <t>Minimum threshold salary increase effect</t>
+  </si>
+  <si>
+    <t>Current number of absent employees</t>
+  </si>
+  <si>
+    <t>Costs of full-time absent employee</t>
+  </si>
+  <si>
+    <t>Current absenteeism costs</t>
+  </si>
+  <si>
+    <t>Current number of staff turnover</t>
+  </si>
+  <si>
+    <t>Current staff turnover costs</t>
+  </si>
+  <si>
+    <t>Current number of productive days per employee</t>
+  </si>
+  <si>
+    <t>Current number of productive days</t>
+  </si>
+  <si>
+    <t>Current wage costs</t>
+  </si>
+  <si>
+    <t>Investment per employee</t>
+  </si>
+  <si>
+    <t>Relative decrease in absenteeism % excluding uncertainty</t>
+  </si>
+  <si>
+    <t>Relative decrease in staff turnover % excluding uncertainty</t>
+  </si>
+  <si>
+    <t>Relative increase in employee satisfaction excluding uncertainty</t>
+  </si>
+  <si>
+    <t>Direct increase in productivity % excluding uncertainty</t>
+  </si>
+  <si>
+    <t>Relative decrease in absenteeism %</t>
+  </si>
+  <si>
+    <t>Relative decrease in staff turnover %</t>
+  </si>
+  <si>
+    <t>Relative increase in employee satisfaction</t>
+  </si>
+  <si>
+    <t>Direct increase in productivity %</t>
+  </si>
+  <si>
+    <t>Indirect effect employee satisfaction on customer satisfaction including uncertainty</t>
+  </si>
+  <si>
+    <t>Relative indirect increase in productivity % excluding uncertainty</t>
+  </si>
+  <si>
+    <t>Relative indirect increase in productivity %</t>
+  </si>
+  <si>
+    <t>New absenteeism %</t>
+  </si>
+  <si>
+    <t>New staff turnover %</t>
+  </si>
+  <si>
+    <t>New employee satisfaction</t>
+  </si>
+  <si>
+    <t>New productivity % after direct effect</t>
+  </si>
+  <si>
+    <t>New productivity %</t>
+  </si>
+  <si>
+    <t>New number of productive days per employee</t>
+  </si>
+  <si>
+    <t>New number of employees</t>
+  </si>
+  <si>
+    <t>New number of absent employees</t>
+  </si>
+  <si>
+    <t>New absenteeism costs</t>
+  </si>
+  <si>
+    <t>New number of staff turnover</t>
+  </si>
+  <si>
+    <t>New staff turnover costs</t>
+  </si>
+  <si>
+    <t>New wage costs</t>
+  </si>
+  <si>
+    <t>Decrease in number of employees</t>
+  </si>
+  <si>
+    <t>New customer satisfaction</t>
+  </si>
+  <si>
+    <t>Return on investment €</t>
+  </si>
+  <si>
+    <t>Return on investment %</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Squeezed *</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>-*</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -53,16 +397,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -70,14 +443,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{176DD84D-32FB-D04E-A92F-B8E65F637E0C}"/>
+    <cellStyle name="Normal_BS5d_Dependencies" xfId="1" xr:uid="{6BF26A68-DF97-764B-86B4-16CA8FAC6E3E}"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,114 +788,2315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323C0127-B98F-8F4A-8B9E-DB2076867E31}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F27D205-AE79-E542-BA48-2D4707481E26}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DA06C9-587A-0249-BA81-B2630B23EDC5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9376F10E-70E0-5847-AA4E-1F18853CB3E7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="57.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED761DDB-51CF-394F-9D46-C056F7FA6C46}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6.4000000000000005E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8.5999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="53.83203125" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19">
+        <v>0.33</v>
+      </c>
+      <c r="F19">
+        <v>0.71</v>
+      </c>
+      <c r="G19">
+        <v>0.2</v>
+      </c>
+      <c r="H19">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20">
+        <v>0.3</v>
+      </c>
+      <c r="F20">
+        <v>0.19</v>
+      </c>
+      <c r="G20">
+        <v>0.5</v>
+      </c>
+      <c r="H20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21">
+        <v>0.04</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.25</v>
+      </c>
+      <c r="H21">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22">
+        <v>0.21</v>
+      </c>
+      <c r="F22">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H22">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23">
+        <v>0.02</v>
+      </c>
+      <c r="F23">
+        <v>0.92</v>
+      </c>
+      <c r="G23">
+        <v>0.8</v>
+      </c>
+      <c r="H23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24">
+        <v>0.38</v>
+      </c>
+      <c r="F24">
+        <v>0.24</v>
+      </c>
+      <c r="G24">
+        <v>0.4</v>
+      </c>
+      <c r="H24">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="F25">
+        <v>0.24</v>
+      </c>
+      <c r="G25">
+        <v>0.4</v>
+      </c>
+      <c r="H25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+      <c r="F26">
+        <v>0.19</v>
+      </c>
+      <c r="G26">
+        <v>0.5</v>
+      </c>
+      <c r="H26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27">
+        <v>0.19</v>
+      </c>
+      <c r="F27">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G27">
+        <v>0.8</v>
+      </c>
+      <c r="H27">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E28">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0.73</v>
+      </c>
+      <c r="G29">
+        <v>0.7</v>
+      </c>
+      <c r="H29">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F30">
+        <v>0.19</v>
+      </c>
+      <c r="G30">
+        <v>0.5</v>
+      </c>
+      <c r="H30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31">
+        <v>0.39</v>
+      </c>
+      <c r="F31">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G31">
+        <v>0.8</v>
+      </c>
+      <c r="H31">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33">
+        <v>0.64</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H33" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34">
+        <v>0.22</v>
+      </c>
+      <c r="F34">
+        <v>0.73</v>
+      </c>
+      <c r="G34">
+        <v>0.7</v>
+      </c>
+      <c r="H34">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F35">
+        <v>0.71</v>
+      </c>
+      <c r="G35">
+        <v>0.2</v>
+      </c>
+      <c r="H35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36">
+        <v>0.1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.25</v>
+      </c>
+      <c r="H36">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37">
+        <v>0.25</v>
+      </c>
+      <c r="F37">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G37">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H37">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="D52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+      <c r="D66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" t="s">
+        <v>102</v>
+      </c>
+      <c r="D67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>92</v>
+      </c>
+      <c r="D71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
+        <v>94</v>
+      </c>
+      <c r="D75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C85" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86" t="s">
+        <v>71</v>
+      </c>
+      <c r="D86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E05F8AE-8DA8-724A-AD7F-0A10B8E741F3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E33D2E0-445B-874F-A88A-006EF8EA7B4B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82690612-F6E7-CC4A-A524-5770D0407DD2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/model/data/IZZ/xlsx/IZZ.xlsx
+++ b/model/data/IZZ/xlsx/IZZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/tRBS/open source/trbs/model/data/IZZ/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0954AC88-2376-174D-9430-90BBCCE586A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F3E533-6022-F947-B1D9-D91BC2D25DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" firstSheet="4" activeTab="8" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" firstSheet="1" activeTab="5" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="112">
   <si>
     <t>configuration</t>
   </si>
@@ -374,9 +374,6 @@
   </si>
   <si>
     <t>Squeezed *</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>-*</t>
@@ -1630,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2100,10 +2097,19 @@
         <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E28">
         <v>0.33</v>
+      </c>
+      <c r="F28">
+        <v>0.65</v>
+      </c>
+      <c r="G28">
+        <v>0.7</v>
+      </c>
+      <c r="H28">
+        <v>3600</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2186,10 +2192,19 @@
         <v>80</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E32">
         <v>0.1</v>
+      </c>
+      <c r="F32">
+        <v>0.65</v>
+      </c>
+      <c r="G32">
+        <v>0.7</v>
+      </c>
+      <c r="H32">
+        <v>3600</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2427,7 +2442,7 @@
         <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2452,7 +2467,7 @@
         <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2552,7 +2567,7 @@
         <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2644,7 +2659,7 @@
         <v>98</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2669,7 +2684,7 @@
         <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2691,7 +2706,7 @@
         <v>102</v>
       </c>
       <c r="D67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2713,7 +2728,7 @@
         <v>103</v>
       </c>
       <c r="D69" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2735,7 +2750,7 @@
         <v>92</v>
       </c>
       <c r="D71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2757,7 +2772,7 @@
         <v>93</v>
       </c>
       <c r="D73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2790,7 +2805,7 @@
         <v>64</v>
       </c>
       <c r="D76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2884,7 +2899,7 @@
         <v>21</v>
       </c>
       <c r="D84" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2898,7 +2913,7 @@
         <v>21</v>
       </c>
       <c r="D85" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3058,7 +3073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82690612-F6E7-CC4A-A524-5770D0407DD2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/model/data/IZZ/xlsx/IZZ.xlsx
+++ b/model/data/IZZ/xlsx/IZZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/tRBS/open source/trbs/model/data/IZZ/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F3E533-6022-F947-B1D9-D91BC2D25DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69BD68A-AC7A-8C4F-9FBA-F820011F2BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" firstSheet="1" activeTab="5" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="113">
   <si>
     <t>configuration</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>Threshold investment per employee</t>
   </si>
 </sst>
 </file>
@@ -1040,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DA06C9-587A-0249-BA81-B2630B23EDC5}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1087,13 +1090,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1101,37 +1104,37 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1142,123 +1145,222 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
       <c r="C11">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17" customHeight="1">
+      <c r="A26" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C19">
+      <c r="C27">
         <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1498,7 +1600,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1625,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:H32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2088,28 +2190,16 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
         <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28">
-        <v>0.33</v>
-      </c>
-      <c r="F28">
-        <v>0.65</v>
-      </c>
-      <c r="G28">
-        <v>0.7</v>
-      </c>
-      <c r="H28">
-        <v>3600</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2117,45 +2207,48 @@
         <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>112</v>
       </c>
       <c r="D29" t="s">
         <v>109</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F29">
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
       <c r="G29">
         <v>0.7</v>
       </c>
       <c r="H29">
-        <v>1500</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>109</v>
       </c>
       <c r="E30">
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.19</v>
+        <v>0.73</v>
       </c>
       <c r="G30">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H30">
-        <v>200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2163,22 +2256,22 @@
         <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
         <v>109</v>
       </c>
       <c r="E31">
-        <v>0.39</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F31">
-        <v>0.56999999999999995</v>
+        <v>0.19</v>
       </c>
       <c r="G31">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H31">
-        <v>2000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2186,25 +2279,22 @@
         <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
         <v>109</v>
       </c>
       <c r="E32">
-        <v>0.1</v>
+        <v>0.39</v>
       </c>
       <c r="F32">
-        <v>0.65</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G32">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H32">
-        <v>3600</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2212,22 +2302,25 @@
         <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
       </c>
       <c r="D33" t="s">
         <v>109</v>
       </c>
       <c r="E33">
-        <v>0.64</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="H33" s="3">
-        <v>270</v>
+        <v>0.1</v>
+      </c>
+      <c r="F33">
+        <v>0.65</v>
+      </c>
+      <c r="G33">
+        <v>0.7</v>
+      </c>
+      <c r="H33">
+        <v>3600</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2235,45 +2328,45 @@
         <v>83</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
         <v>109</v>
       </c>
       <c r="E34">
-        <v>0.22</v>
-      </c>
-      <c r="F34">
-        <v>0.73</v>
-      </c>
-      <c r="G34">
-        <v>0.7</v>
-      </c>
-      <c r="H34">
-        <v>1500</v>
+        <v>0.64</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="H34" s="3">
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
         <v>109</v>
       </c>
       <c r="E35">
-        <v>7.0000000000000007E-2</v>
+        <v>0.22</v>
       </c>
       <c r="F35">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="G35">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H35">
-        <v>180</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2281,22 +2374,22 @@
         <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
         <v>109</v>
       </c>
       <c r="E36">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F36">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="G36">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="H36">
-        <v>125</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2304,47 +2397,56 @@
         <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
         <v>109</v>
       </c>
       <c r="E37">
+        <v>0.1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
         <v>0.25</v>
       </c>
-      <c r="F37">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="G37">
-        <v>0.13700000000000001</v>
-      </c>
       <c r="H37">
-        <v>390</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="E38">
+        <v>0.25</v>
+      </c>
+      <c r="F38">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G38">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H38">
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
         <v>108</v>
@@ -2352,13 +2454,13 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
         <v>108</v>
@@ -2366,13 +2468,13 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
         <v>108</v>
@@ -2380,13 +2482,13 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D42" t="s">
         <v>108</v>
@@ -2394,13 +2496,13 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
         <v>108</v>
@@ -2408,13 +2510,13 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s">
         <v>108</v>
@@ -2422,10 +2524,13 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
       </c>
       <c r="D45" t="s">
         <v>108</v>
@@ -2436,24 +2541,24 @@
         <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" t="s">
         <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>85</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2461,24 +2566,24 @@
         <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
         <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2486,9 +2591,6 @@
         <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" t="s">
         <v>64</v>
       </c>
       <c r="D50" t="s">
@@ -2497,10 +2599,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>87</v>
+      </c>
+      <c r="C51" t="s">
+        <v>64</v>
       </c>
       <c r="D51" t="s">
         <v>108</v>
@@ -2511,7 +2616,7 @@
         <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D52" t="s">
         <v>108</v>
@@ -2519,10 +2624,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
         <v>108</v>
@@ -2533,9 +2638,6 @@
         <v>96</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" t="s">
         <v>95</v>
       </c>
       <c r="D54" t="s">
@@ -2544,13 +2646,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
         <v>108</v>
@@ -2558,41 +2660,41 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D58" t="s">
         <v>108</v>
@@ -2600,13 +2702,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D59" t="s">
         <v>108</v>
@@ -2614,13 +2716,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D60" t="s">
         <v>108</v>
@@ -2628,13 +2730,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
         <v>108</v>
@@ -2642,10 +2744,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>98</v>
+      </c>
+      <c r="C62" t="s">
+        <v>61</v>
       </c>
       <c r="D62" t="s">
         <v>108</v>
@@ -2656,35 +2761,35 @@
         <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="C65" t="s">
+        <v>65</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2692,21 +2797,21 @@
         <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="D67" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2714,21 +2819,21 @@
         <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="D68" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D69" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2736,21 +2841,21 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D70" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D71" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2758,21 +2863,21 @@
         <v>13</v>
       </c>
       <c r="B72" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="D73" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2780,18 +2885,18 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D75" t="s">
         <v>108</v>
@@ -2802,35 +2907,32 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D76" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D78" t="s">
         <v>108</v>
@@ -2838,10 +2940,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>104</v>
+      </c>
+      <c r="C79" t="s">
+        <v>97</v>
       </c>
       <c r="D79" t="s">
         <v>108</v>
@@ -2852,7 +2957,7 @@
         <v>105</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D80" t="s">
         <v>108</v>
@@ -2860,10 +2965,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
         <v>108</v>
@@ -2874,7 +2979,7 @@
         <v>106</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D82" t="s">
         <v>108</v>
@@ -2885,7 +2990,7 @@
         <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83" t="s">
         <v>108</v>
@@ -2896,34 +3001,45 @@
         <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B85" t="s">
-        <v>106</v>
-      </c>
-      <c r="C85" t="s">
         <v>21</v>
       </c>
       <c r="D85" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" t="s">
+        <v>106</v>
+      </c>
+      <c r="C86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
         <v>71</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>71</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D87" t="s">
         <v>108</v>
       </c>
     </row>
